--- a/Hitbox_Standard/BOM.xlsx
+++ b/Hitbox_Standard/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\DIYProjects\Hitbox_Standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60599923-5E5C-4976-9E85-E62373D440E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7DFC1-75EA-4739-B4A8-DF04DA956A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="2540" windowWidth="24120" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10270" yWindow="4650" windowWidth="24120" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>物料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,34 @@
   </si>
   <si>
     <t>M2.5 * 8 平头内六角螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm单排弯针 4pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nf 50v 电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEC-304A-ACP16G 尾插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4pin弹头杜邦线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEC 公头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯华热拔插轴座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws2812 6028反贴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,12 +162,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -563,13 +598,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -578,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,20 +679,97 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <f>SUMPRODUCT(B2:B17,C2:C17)</f>
-        <v>95.81</v>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <f>SUMPRODUCT(B2:B24,C2:C24)</f>
+        <v>322.94499999999999</v>
       </c>
     </row>
   </sheetData>
